--- a/SourceCode/ExcisePlaning/Contents/ReportTemplates/Report004_BudgetIncomeGroupByBudgetType_Template.xlsx
+++ b/SourceCode/ExcisePlaning/Contents/ReportTemplates/Report004_BudgetIncomeGroupByBudgetType_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\CSharpWebExcisePlaning\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="3540" windowWidth="21648" windowHeight="13368"/>
+    <workbookView xWindow="2832" yWindow="4452" windowWidth="21648" windowHeight="13368"/>
   </bookViews>
   <sheets>
     <sheet name="เงินประจำงวด" sheetId="7" r:id="rId1"/>
@@ -179,11 +179,11 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -522,15 +522,15 @@
     <row r="2" spans="1:16" ht="24.6" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="27" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
@@ -572,7 +572,7 @@
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <pageMargins left="0.3" right="0.22" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>